--- a/resources/G3EI3/Notes_ApresRat.xlsx
+++ b/resources/G3EI3/Notes_ApresRat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62781FDC-7322-4010-AE6D-A5E512125969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F6A1A-66B7-4FA4-BC7F-B050C30EC770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2CD9934-7BE9-4F74-B5AA-DD24F02C55BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2CD9934-7BE9-4F74-B5AA-DD24F02C55BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>LastName</t>
   </si>
@@ -112,6 +110,9 @@
   </si>
   <si>
     <t>G3EI3_LN9</t>
+  </si>
+  <si>
+    <t>CNE</t>
   </si>
 </sst>
 </file>
@@ -494,20 +495,20 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>19000060</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -528,16 +529,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <f>A1+1</f>
-        <v>19000061</v>
+        <v>17000041</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -558,16 +558,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A10" si="0">A2+1</f>
-        <v>19000062</v>
+        <f>A2+1</f>
+        <v>17000042</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -588,16 +588,16 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>19000063</v>
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>17000043</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -618,16 +618,16 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>19000064</v>
+        <v>17000044</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -648,16 +648,16 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>19000065</v>
+        <v>17000045</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -678,16 +678,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>19000066</v>
+        <v>17000046</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -708,16 +708,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>19000067</v>
+        <v>17000047</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -738,16 +738,16 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>19000068</v>
+        <v>17000048</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D9">
         <v>13</v>
@@ -768,16 +768,16 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>19000069</v>
+        <v>17000049</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D10">
         <v>16</v>
